--- a/NSAS/stf/NSAS_stf_2020_tab_CD_TAC_sq.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab_CD_TAC_sq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B883EBC-49FB-47B7-A0F6-18F5C047AE2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ECEFBB6-C8DD-4A78-A1CD-06DFC81D230F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,41 +1080,41 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>0.196852693462615</v>
+        <v>0.19685269506612699</v>
       </c>
       <c r="C2" s="1">
-        <v>1.7872262287107699E-2</v>
+        <v>1.7872262285893201E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>1.9676258537208598E-3</v>
+        <v>1.9676258521163399E-3</v>
       </c>
       <c r="E2" s="1">
-        <v>7.6751678634686305E-4</v>
+        <v>7.6751678629677497E-4</v>
       </c>
       <c r="F2" s="1">
-        <v>0.19820017916613999</v>
+        <v>0.19820018076863499</v>
       </c>
       <c r="G2" s="1">
-        <v>2.13963503172253E-2</v>
+        <v>2.13963503207827E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>391200.47541062202</v>
+        <v>391200.47811948002</v>
       </c>
       <c r="I2" s="1">
-        <v>5614.9800130044696</v>
+        <v>5614.9800126062901</v>
       </c>
       <c r="J2" s="1">
-        <v>3330.3937383544398</v>
+        <v>3330.39373536621</v>
       </c>
       <c r="K2" s="1">
-        <v>241.13295484096699</v>
+        <v>241.13295482451699</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.98211682186</v>
+        <v>400386.9848222771</v>
       </c>
       <c r="M2" s="1">
-        <v>1287790.1213863799</v>
+        <v>1287790.1195570601</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>12</v>
@@ -1134,56 +1134,56 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>0.226613543291935</v>
+        <v>0.226613543085911</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0574250787650301E-2</v>
+        <v>2.0574250599954699E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>1.90817715487828E-3</v>
+        <v>1.9081771548694201E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>7.5104621074791197E-4</v>
+        <v>7.5104621068203497E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>0.22793940856303899</v>
+        <v>0.22793940835590501</v>
       </c>
       <c r="G3" s="1">
-        <v>2.4141694951063001E-2</v>
+        <v>2.41416947624669E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>368118.66743382002</v>
+        <v>368118.66641693999</v>
       </c>
       <c r="I3" s="1">
-        <v>6605.6253529201704</v>
+        <v>6605.6252933010901</v>
       </c>
       <c r="J3" s="1">
-        <v>3330.3937052836</v>
+        <v>3330.39370528166</v>
       </c>
       <c r="K3" s="1">
-        <v>241.13295507746699</v>
+        <v>241.13295507978799</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L21" si="0">SUM(H3:K3)</f>
-        <v>378295.81944710121</v>
+        <v>378295.8183706025</v>
       </c>
       <c r="M3" s="1">
-        <v>1179233.94129157</v>
+        <v>1179233.9400802699</v>
       </c>
       <c r="N3" s="1">
-        <v>1166818.3225032799</v>
+        <v>1166818.32216917</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>-8.4296484568419441</v>
+        <v>-8.4296484208256235</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-4.3867484743641629</v>
+        <v>-4.3867487384833597</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-12.240972424592934</v>
+        <v>-12.24097267432469</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1191,56 +1191,56 @@
         <v>34</v>
       </c>
       <c r="B4" s="1">
-        <v>0.226464156856687</v>
+        <v>0.22646415664348399</v>
       </c>
       <c r="C4" s="1">
-        <v>4.6352405816209502E-2</v>
+        <v>4.63524058222732E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>1.91187035876317E-3</v>
+        <v>1.9118703587767199E-3</v>
       </c>
       <c r="E4" s="1">
-        <v>7.6101121640748397E-4</v>
+        <v>7.6101121644255802E-4</v>
       </c>
       <c r="F4" s="1">
-        <v>0.227943895898189</v>
+        <v>0.22794389568503001</v>
       </c>
       <c r="G4" s="1">
-        <v>4.9932909478845003E-2</v>
+        <v>4.9932909484102797E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>367896.85108454397</v>
+        <v>367896.85005808302</v>
       </c>
       <c r="I4" s="1">
-        <v>14687.158713364101</v>
+        <v>14687.158715252899</v>
       </c>
       <c r="J4" s="1">
-        <v>3330.3937049590099</v>
+        <v>3330.3937049486999</v>
       </c>
       <c r="K4" s="1">
-        <v>241.13295353740401</v>
+        <v>241.13295354798501</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>386155.53645640449</v>
+        <v>386155.5354318326</v>
       </c>
       <c r="M4" s="1">
-        <v>1179239.0920825901</v>
+        <v>1179239.09087641</v>
       </c>
       <c r="N4" s="1">
-        <v>1164553.4073960001</v>
+        <v>1164553.4070532999</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O21" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>-8.4292484855318222</v>
+        <v>-8.4292484491173578</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-4.4443619133773913</v>
+        <v>-4.4443621799850872</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-10.417634480328935</v>
+        <v>-10.41763471801444</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1248,56 +1248,56 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>0.21774735836989301</v>
+        <v>0.21774735814613499</v>
       </c>
       <c r="C5" s="1">
-        <v>1.9769289577186398E-2</v>
+        <v>1.97692893944925E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>3.8221723568539899E-3</v>
+        <v>3.8221723568364501E-3</v>
       </c>
       <c r="E5" s="1">
-        <v>7.5115288392038095E-4</v>
+        <v>7.5115288384911005E-4</v>
       </c>
       <c r="F5" s="1">
-        <v>0.220272696149307</v>
+        <v>0.220272695924464</v>
       </c>
       <c r="G5" s="1">
-        <v>2.5215301757416299E-2</v>
+        <v>2.52153015737368E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>355854.67029514001</v>
+        <v>355854.66927286203</v>
       </c>
       <c r="I5" s="1">
-        <v>6346.2809141707503</v>
+        <v>6346.2808561250104</v>
       </c>
       <c r="J5" s="1">
-        <v>6660.78747667688</v>
+        <v>6660.78747667675</v>
       </c>
       <c r="K5" s="1">
         <v>241.13295484068999</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>369102.87164082826</v>
+        <v>369102.87056050444</v>
       </c>
       <c r="M5" s="1">
-        <v>1186083.74849627</v>
+        <v>1186083.74728557</v>
       </c>
       <c r="N5" s="1">
-        <v>1175798.9249916801</v>
+        <v>1175798.9246698699</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.897744453934556</v>
+        <v>-7.8977444171160691</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-7.5721360867462471</v>
+        <v>-7.5721363522674787</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-14.373600168693073</v>
+        <v>-14.373600419312201</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1305,56 +1305,56 @@
         <v>35</v>
       </c>
       <c r="B6" s="1">
-        <v>0.21759893403028099</v>
+        <v>0.21759893380537901</v>
       </c>
       <c r="C6" s="1">
-        <v>4.4537882883290199E-2</v>
+        <v>4.4537882885013702E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>3.82928949539286E-3</v>
+        <v>3.82928949542862E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>7.6073553540764195E-4</v>
+        <v>7.6073553544236895E-4</v>
       </c>
       <c r="F6" s="1">
-        <v>0.220274364588366</v>
+        <v>0.22027436436349701</v>
       </c>
       <c r="G6" s="1">
-        <v>4.99999999991073E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="1">
-        <v>355632.85394633003</v>
+        <v>355632.85292268102</v>
       </c>
       <c r="I6" s="1">
-        <v>14117.3256522343</v>
+        <v>14117.325652780901</v>
       </c>
       <c r="J6" s="1">
-        <v>6660.7874766719897</v>
+        <v>6660.7874766720297</v>
       </c>
       <c r="K6" s="1">
-        <v>241.13295453937701</v>
+        <v>241.13295455038801</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>376652.1000297757</v>
+        <v>376652.09900668432</v>
       </c>
       <c r="M6" s="1">
-        <v>1186092.7323988699</v>
+        <v>1186092.73118803</v>
       </c>
       <c r="N6" s="1">
-        <v>1173638.70177701</v>
+        <v>1173638.70143879</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.8970468322918119</v>
+        <v>-7.8970467954832007</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-7.629749525638422</v>
+        <v>-7.6297497915157555</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-12.622290986035489</v>
+        <v>-12.622291223377538</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1362,56 +1362,56 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>0.19484015048233699</v>
+        <v>0.19484015029850399</v>
       </c>
       <c r="C7" s="1">
-        <v>2.47706504999518E-2</v>
+        <v>2.4770650473912199E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>1.96633457067587E-3</v>
+        <v>1.9663345691334601E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>7.6165418958469599E-4</v>
+        <v>7.6165418954228796E-4</v>
       </c>
       <c r="F7" s="1">
-        <v>0.196227329372063</v>
+        <v>0.196227329187106</v>
       </c>
       <c r="G7" s="1">
-        <v>2.82795187890406E-2</v>
+        <v>2.8279518760679401E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>311558.88388424099</v>
+        <v>311558.88296860497</v>
       </c>
       <c r="I7" s="1">
-        <v>12655.7295750054</v>
+        <v>12655.729561869401</v>
       </c>
       <c r="J7" s="1">
-        <v>3436.6269458306501</v>
+        <v>3436.6269430078801</v>
       </c>
       <c r="K7" s="1">
-        <v>244.02747971461099</v>
+        <v>244.027479704271</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>327895.26788479165</v>
+        <v>327895.26695318654</v>
       </c>
       <c r="M7" s="1">
-        <v>1207717.6957076399</v>
+        <v>1207717.6944206499</v>
       </c>
       <c r="N7" s="1">
-        <v>1214307.4485797901</v>
+        <v>1214307.44814912</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2178164243516223</v>
+        <v>-6.2178163910708806</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.077296086252499</v>
+        <v>-19.077296324075089</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-23.933153958179645</v>
+        <v>-23.933154174298235</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1419,56 +1419,56 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>0.19484015048233699</v>
+        <v>0.19484015029850399</v>
       </c>
       <c r="C8" s="1">
-        <v>2.47706504999518E-2</v>
+        <v>2.4770650473912199E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>1.96633457067587E-3</v>
+        <v>1.9663345691334601E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>7.6165418958469599E-4</v>
+        <v>7.6165418954228796E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>0.196227329372063</v>
+        <v>0.196227329187106</v>
       </c>
       <c r="G8" s="1">
-        <v>2.82795187890406E-2</v>
+        <v>2.8279518760679401E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>311558.88388424099</v>
+        <v>311558.88296860497</v>
       </c>
       <c r="I8" s="1">
-        <v>12655.7295750054</v>
+        <v>12655.729561869401</v>
       </c>
       <c r="J8" s="1">
-        <v>3436.6269458306501</v>
+        <v>3436.6269430078801</v>
       </c>
       <c r="K8" s="1">
-        <v>244.02747971461099</v>
+        <v>244.027479704271</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>327895.26788479165</v>
+        <v>327895.26695318654</v>
       </c>
       <c r="M8" s="1">
-        <v>1207717.6957076399</v>
+        <v>1207717.6944206499</v>
       </c>
       <c r="N8" s="1">
-        <v>1214307.4485797901</v>
+        <v>1214307.44814912</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2178164243516223</v>
+        <v>-6.2178163910708806</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.077296086252499</v>
+        <v>-19.077296324075089</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-23.933153958179645</v>
+        <v>-23.933154174298235</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1476,56 +1476,56 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>0.19484015048233699</v>
+        <v>0.19484015029850399</v>
       </c>
       <c r="C9" s="1">
-        <v>2.47706504999518E-2</v>
+        <v>2.4770650473912199E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>1.96633457067587E-3</v>
+        <v>1.9663345691334601E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>7.6165418958469599E-4</v>
+        <v>7.6165418954228796E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>0.196227329372063</v>
+        <v>0.196227329187106</v>
       </c>
       <c r="G9" s="1">
-        <v>2.82795187890406E-2</v>
+        <v>2.8279518760679401E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>311558.88388424099</v>
+        <v>311558.88296860497</v>
       </c>
       <c r="I9" s="1">
-        <v>12655.7295750054</v>
+        <v>12655.729561869401</v>
       </c>
       <c r="J9" s="1">
-        <v>3436.6269458306501</v>
+        <v>3436.6269430078801</v>
       </c>
       <c r="K9" s="1">
-        <v>244.02747971461099</v>
+        <v>244.027479704271</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>327895.26788479165</v>
+        <v>327895.26695318654</v>
       </c>
       <c r="M9" s="1">
-        <v>1207717.6957076399</v>
+        <v>1207717.6944206499</v>
       </c>
       <c r="N9" s="1">
-        <v>1214307.4485797901</v>
+        <v>1214307.44814912</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2178164243516223</v>
+        <v>-6.2178163910708806</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.077296086252499</v>
+        <v>-19.077296324075089</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-23.933153958179645</v>
+        <v>-23.933154174298235</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1533,56 +1533,56 @@
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>0.198882044819196</v>
+        <v>0.198882044631807</v>
       </c>
       <c r="C10" s="1">
-        <v>3.0584730229449901E-2</v>
+        <v>3.0584730229976501E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>1.96580703335404E-3</v>
+        <v>1.9658070317921002E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>7.6026832040156501E-4</v>
+        <v>7.6026832035261404E-4</v>
       </c>
       <c r="F10" s="1">
-        <v>0.20030305151639799</v>
+        <v>0.200303051328028</v>
       </c>
       <c r="G10" s="1">
-        <v>3.4107884199016197E-2</v>
+        <v>3.4107884197180902E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>317304.121781205</v>
+        <v>317304.12085120898</v>
       </c>
       <c r="I10" s="1">
-        <v>15579.6120607304</v>
+        <v>15579.6120610006</v>
       </c>
       <c r="J10" s="1">
-        <v>3433.4381592519499</v>
+        <v>3433.43815642145</v>
       </c>
       <c r="K10" s="1">
-        <v>242.856652272991</v>
+        <v>242.85665225737699</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>336560.02865346032</v>
+        <v>336560.02772088844</v>
       </c>
       <c r="M10" s="1">
-        <v>1203998.75830648</v>
+        <v>1203998.7570299101</v>
       </c>
       <c r="N10" s="1">
-        <v>1207426.7333450499</v>
+        <v>1207426.7329243501</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-6.5066008574202847</v>
+        <v>-6.5066008237406185</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.585057510180306</v>
+        <v>-17.585057751732698</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-21.923057784388249</v>
+        <v>-21.923058000731114</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1590,56 +1590,56 @@
         <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25744753314193403</v>
+        <v>0.257447533143012</v>
       </c>
       <c r="C11" s="1">
-        <v>2.3373669704729299E-2</v>
+        <v>2.3373669512843E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>3.8316110269615801E-3</v>
+        <v>3.8316110269889501E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>7.5262663962167697E-4</v>
+        <v>7.5262663954648397E-4</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26</v>
+        <v>0.25999999999996698</v>
       </c>
       <c r="G11" s="1">
-        <v>2.8989704502859599E-2</v>
+        <v>2.8989704310929801E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>409067.18045059801</v>
+        <v>409067.17964044301</v>
       </c>
       <c r="I11" s="1">
-        <v>7488.6560542220896</v>
+        <v>7488.6559934842999</v>
       </c>
       <c r="J11" s="1">
-        <v>6660.7874766719997</v>
+        <v>6660.7874766737596</v>
       </c>
       <c r="K11" s="1">
-        <v>241.13295484068999</v>
+        <v>241.132954840439</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>423457.75693633273</v>
+        <v>423457.75606544153</v>
       </c>
       <c r="M11" s="1">
-        <v>1151546.5383830001</v>
+        <v>1151546.5370471</v>
       </c>
       <c r="N11" s="1">
-        <v>1119295.5143611301</v>
+        <v>1119295.51379002</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.579641879587168</v>
+        <v>-10.579641856300428</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>6.2490079298606807</v>
+        <v>6.2490077194351832</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-1.7640717724288537</v>
+        <v>-1.7640719744627158</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1681,14 +1681,14 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1410557.7981762399</v>
+        <v>1410557.79626078</v>
       </c>
       <c r="N12" s="1">
-        <v>1622539.16908469</v>
+        <v>1622539.1676419999</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332053531901284</v>
+        <v>9.5332053600431621</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1704,56 +1704,56 @@
         <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>0.23921735035133199</v>
+        <v>0.23921735092548599</v>
       </c>
       <c r="C13" s="1">
-        <v>2.17185508305878E-2</v>
+        <v>2.1718550704325702E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>3.8272794860541399E-3</v>
+        <v>3.82727948622116E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>7.5194979454249898E-4</v>
+        <v>7.5194979449463698E-4</v>
       </c>
       <c r="F13" s="1">
-        <v>0.24175736130571901</v>
+        <v>0.24175736187923599</v>
       </c>
       <c r="G13" s="1">
-        <v>2.7256514393453599E-2</v>
+        <v>2.72565142696117E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>385007.99999860697</v>
+        <v>385007.99999860598</v>
       </c>
       <c r="I13" s="1">
-        <v>6964.6382971932999</v>
+        <v>6964.6382571472504</v>
       </c>
       <c r="J13" s="1">
-        <v>6660.7874766722498</v>
+        <v>6660.7874766722198</v>
       </c>
       <c r="K13" s="1">
         <v>241.132954840688</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>398874.55872731318</v>
+        <v>398874.55868726614</v>
       </c>
       <c r="M13" s="1">
-        <v>1167202.0951493499</v>
+        <v>1167202.09328202</v>
       </c>
       <c r="N13" s="1">
-        <v>1144575.02906288</v>
+        <v>1144575.0276416701</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.3639502458063681</v>
+        <v>-9.3639502620595341</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
-        <v>-3.6181734950471209E-10</v>
+        <v>-3.6207436500452745E-10</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-7.4670096813652833</v>
+        <v>-7.4670096906556038</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1761,56 +1761,56 @@
         <v>-0.15</v>
       </c>
       <c r="B14" s="1">
-        <v>0.197317205399266</v>
+        <v>0.19731720586653401</v>
       </c>
       <c r="C14" s="1">
-        <v>1.79144353405787E-2</v>
+        <v>1.7914435235858301E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>3.8173066399995398E-3</v>
+        <v>3.8173066401368302E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>7.50394791945325E-4</v>
+        <v>7.5039479191127097E-4</v>
       </c>
       <c r="F14" s="1">
-        <v>0.19982857692379299</v>
+        <v>0.199828577390531</v>
       </c>
       <c r="G14" s="1">
-        <v>2.32729438315432E-2</v>
+        <v>2.3272943728798699E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>327256.79999725899</v>
+        <v>327256.80000110698</v>
       </c>
       <c r="I14" s="1">
-        <v>5756.6507315955096</v>
+        <v>5756.6506982492401</v>
       </c>
       <c r="J14" s="1">
-        <v>6660.7874500337803</v>
+        <v>6660.7874500080097</v>
       </c>
       <c r="K14" s="1">
-        <v>241.132954844111</v>
+        <v>241.13295484593399</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>339915.37113373238</v>
+        <v>339915.37110421021</v>
       </c>
       <c r="M14" s="1">
-        <v>1204510.07584192</v>
+        <v>1204510.07396479</v>
       </c>
       <c r="N14" s="1">
-        <v>1207069.3146418401</v>
+        <v>1207069.31320323</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.4668958210988761</v>
+        <v>-6.4668958339977447</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
-        <v>-15.000000000711937</v>
+        <v>-14.999999999712479</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-21.144668021367604</v>
+        <v>-21.144668028216312</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1818,56 +1818,56 @@
         <v>0.15</v>
       </c>
       <c r="B15" s="1">
-        <v>0.28379367261201999</v>
+        <v>0.28379367330676902</v>
       </c>
       <c r="C15" s="1">
-        <v>2.5765636543382299E-2</v>
+        <v>2.5765636394827499E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>3.8378630902585098E-3</v>
+        <v>3.8378630904452901E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>7.5360511582996201E-4</v>
+        <v>7.5360511577371404E-4</v>
       </c>
       <c r="F15" s="1">
-        <v>0.28636413572192898</v>
+        <v>0.28636413641592301</v>
       </c>
       <c r="G15" s="1">
-        <v>3.14944918270577E-2</v>
+        <v>3.1494491681417901E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>442759.19967265398</v>
+        <v>442759.19967267202</v>
       </c>
       <c r="I15" s="1">
-        <v>8244.2965719679105</v>
+        <v>8244.2965250500802</v>
       </c>
       <c r="J15" s="1">
-        <v>6660.7874766651203</v>
+        <v>6660.7874766692603</v>
       </c>
       <c r="K15" s="1">
-        <v>241.13295484059</v>
+        <v>241.13295484059699</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>457905.41667612758</v>
+        <v>457905.41662923194</v>
       </c>
       <c r="M15" s="1">
-        <v>1129513.26558626</v>
+        <v>1129513.26372661</v>
       </c>
       <c r="N15" s="1">
-        <v>1084622.3010200099</v>
+        <v>1084622.2996143</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-12.290578501233247</v>
+        <v>-12.290578521047355</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>14.999999914976827</v>
+        <v>14.999999914981512</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>6.2272751196179632</v>
+        <v>6.2272751087388691</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1875,56 +1875,56 @@
         <v>22</v>
       </c>
       <c r="B16" s="1">
-        <v>0.19568992022512099</v>
+        <v>0.195689921819726</v>
       </c>
       <c r="C16" s="1">
-        <v>1.7766694067971898E-2</v>
+        <v>1.7766694066816E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>3.8169188320742401E-3</v>
+        <v>3.8169188457618602E-3</v>
       </c>
       <c r="E16" s="1">
-        <v>7.5033441839056998E-4</v>
+        <v>7.5033441838373799E-4</v>
       </c>
       <c r="F16" s="1">
-        <v>0.19820017916542301</v>
+        <v>0.19820018076863299</v>
       </c>
       <c r="G16" s="1">
-        <v>2.31182325508364E-2</v>
+        <v>2.3118232569752099E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>324941.94590967102</v>
+        <v>324941.94752437703</v>
       </c>
       <c r="I16" s="1">
-        <v>5709.6347087752401</v>
+        <v>5709.63470836134</v>
       </c>
       <c r="J16" s="1">
-        <v>6660.7874536167001</v>
+        <v>6660.7874766717996</v>
       </c>
       <c r="K16" s="1">
-        <v>241.13295484467801</v>
+        <v>241.13295484069101</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>337553.50102690764</v>
+        <v>337553.50266425085</v>
       </c>
       <c r="M16" s="1">
-        <v>1205997.4237744201</v>
+        <v>1205997.4208547501</v>
       </c>
       <c r="N16" s="1">
-        <v>1209628.6382410501</v>
+        <v>1209628.6349899501</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.351399677138799</v>
+        <v>-6.3513997708293388</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-15.601248309211492</v>
+        <v>-15.601247889816047</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-21.692586907009286</v>
+        <v>-21.692586527169908</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1932,56 +1932,56 @@
         <v>23</v>
       </c>
       <c r="B17" s="1">
-        <v>0.297420231253963</v>
+        <v>0.29742023125516698</v>
       </c>
       <c r="C17" s="1">
-        <v>2.7002792234958901E-2</v>
+        <v>2.70027920132755E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>3.84109315249703E-3</v>
+        <v>3.8410931524946799E-3</v>
       </c>
       <c r="E17" s="1">
-        <v>7.5411133702886002E-4</v>
+        <v>7.5411133693985895E-4</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3</v>
+        <v>0.29999999999989901</v>
       </c>
       <c r="G17" s="1">
-        <v>3.2789996266009598E-2</v>
+        <v>3.2789996044239697E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>459704.41726975498</v>
+        <v>459704.41636904702</v>
       </c>
       <c r="I17" s="1">
-        <v>8634.3524634512505</v>
+        <v>8634.3523935508092</v>
       </c>
       <c r="J17" s="1">
-        <v>6660.7874767062603</v>
+        <v>6660.7874766735704</v>
       </c>
       <c r="K17" s="1">
-        <v>241.13295484168199</v>
+        <v>241.13295484071801</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>475240.69016475417</v>
+        <v>475240.68919411208</v>
       </c>
       <c r="M17" s="1">
-        <v>1118384.24057307</v>
+        <v>1118384.2393081801</v>
       </c>
       <c r="N17" s="1">
-        <v>1067498.8537758801</v>
+        <v>1067498.8532798099</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.154774058286359</v>
+        <v>-13.15477403314352</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>19.401263680171574</v>
+        <v>19.401263446226316</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>10.248801834713838</v>
+        <v>10.248801609539251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1989,56 +1989,56 @@
         <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33739294239483197</v>
+        <v>0.33739294239607798</v>
       </c>
       <c r="C18" s="1">
-        <v>3.06319159480773E-2</v>
+        <v>3.0631915696589199E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>3.8505545504749598E-3</v>
+        <v>3.8505545504893199E-3</v>
       </c>
       <c r="E18" s="1">
-        <v>7.5559685999614405E-4</v>
+        <v>7.5559685989787099E-4</v>
       </c>
       <c r="F18" s="1">
-        <v>0.33999999999976699</v>
+        <v>0.339999999999544</v>
       </c>
       <c r="G18" s="1">
-        <v>3.6590269362268002E-2</v>
+        <v>3.6590269110701103E-2</v>
       </c>
       <c r="H18" s="1">
-        <v>507619.94633186498</v>
+        <v>507619.94534770702</v>
       </c>
       <c r="I18" s="1">
-        <v>9775.5361305092392</v>
+        <v>9775.5360515143802</v>
       </c>
       <c r="J18" s="1">
-        <v>6660.7874766720897</v>
+        <v>6660.7874766851801</v>
       </c>
       <c r="K18" s="1">
-        <v>241.132954840694</v>
+        <v>241.13295484046901</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>524297.40289388702</v>
+        <v>524297.40183074703</v>
       </c>
       <c r="M18" s="1">
-        <v>1086747.49805035</v>
+        <v>1086747.4968522801</v>
       </c>
       <c r="N18" s="1">
-        <v>1020193.35016133</v>
+        <v>1020193.34973032</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.611443200045365</v>
+        <v>-15.611443173203508</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>31.846597040026438</v>
+        <v>31.846596784406302</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>21.629232661168697</v>
+        <v>21.629232414535963</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2046,56 +2046,56 @@
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>0.61964866051619105</v>
+        <v>0.61964865905605504</v>
       </c>
       <c r="C19" s="1">
-        <v>5.6257921554441398E-2</v>
+        <v>5.6257920959790299E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>3.9168265101829402E-3</v>
+        <v>3.9168265097363503E-3</v>
       </c>
       <c r="E19" s="1">
-        <v>7.6610969025044302E-4</v>
+        <v>7.6610969001610204E-4</v>
       </c>
       <c r="F19" s="1">
-        <v>0.62244807279585401</v>
+        <v>0.62244807133194102</v>
       </c>
       <c r="G19" s="1">
-        <v>6.3424283028695905E-2</v>
+        <v>6.3424282427511899E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>784300.26615884202</v>
+        <v>784300.26353783195</v>
       </c>
       <c r="I19" s="1">
-        <v>17707.1756567706</v>
+        <v>17707.1754750199</v>
       </c>
       <c r="J19" s="1">
-        <v>6660.7874753876004</v>
+        <v>6660.7874753165197</v>
       </c>
       <c r="K19" s="1">
-        <v>241.132954840699</v>
+        <v>241.13295484068999</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>808909.36224584084</v>
+        <v>808909.35944300902</v>
       </c>
       <c r="M19" s="1">
-        <v>900000.00003455498</v>
+        <v>900000.00003345497</v>
       </c>
       <c r="N19" s="1">
-        <v>776270.55154451798</v>
+        <v>776270.55235400598</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.112835539874045</v>
+        <v>-30.112835440683991</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>103.71012190885436</v>
+        <v>103.71012122808668</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>87.65499214633644</v>
+        <v>87.654991496120985</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2103,56 +2103,56 @@
         <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>0.81573703475377801</v>
+        <v>0.81573703334955805</v>
       </c>
       <c r="C20" s="1">
-        <v>7.4060791274851198E-2</v>
+        <v>7.4060790539049307E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>3.9623815894897496E-3</v>
+        <v>3.9623815890504196E-3</v>
       </c>
       <c r="E20" s="1">
-        <v>7.73436758304334E-4</v>
+        <v>7.7343675801458498E-4</v>
       </c>
       <c r="F20" s="1">
-        <v>0.81866977426413901</v>
+        <v>0.81866977285531695</v>
       </c>
       <c r="G20" s="1">
-        <v>8.2065917051167406E-2</v>
+        <v>8.2065916309008599E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>930162.35589811497</v>
+        <v>930162.35334901302</v>
       </c>
       <c r="I20" s="1">
-        <v>23089.796607321201</v>
+        <v>23089.7963865737</v>
       </c>
       <c r="J20" s="1">
-        <v>6660.7874767835801</v>
+        <v>6660.78747678319</v>
       </c>
       <c r="K20" s="1">
-        <v>241.13295483972399</v>
+        <v>241.13295483974599</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>960154.07293705957</v>
+        <v>960154.0701672096</v>
       </c>
       <c r="M20" s="1">
-        <v>800000.00303645595</v>
+        <v>800000.00303885795</v>
       </c>
       <c r="N20" s="1">
-        <v>664899.44092170196</v>
+        <v>664899.44154426304</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.878075802040627</v>
+        <v>-37.878075713609235</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>141.59559175344796</v>
+        <v>141.59559109135733</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>122.74152510243528</v>
+        <v>122.7415244598711</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2160,56 +2160,56 @@
         <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>1.96852693462616E-9</v>
+        <v>7.3156591660757204E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>1.78722622871077E-10</v>
+        <v>6.6418892241421295E-4</v>
       </c>
       <c r="D21" s="1">
-        <v>3.77002910786438E-3</v>
+        <v>3.7717603250491498E-3</v>
       </c>
       <c r="E21" s="1">
-        <v>7.4308429814947503E-4</v>
+        <v>7.4335495422781102E-4</v>
       </c>
       <c r="F21" s="1">
-        <v>2.3763070259618601E-3</v>
+        <v>9.6969582874465807E-3</v>
       </c>
       <c r="G21" s="1">
-        <v>4.5131135926259301E-3</v>
+        <v>5.2086238694728504E-3</v>
       </c>
       <c r="H21" s="1">
-        <v>3.8029384530549799E-3</v>
+        <v>14048.362033664</v>
       </c>
       <c r="I21" s="1">
-        <v>5.7995997188477899E-5</v>
+        <v>215.452707377976</v>
       </c>
       <c r="J21" s="1">
-        <v>6660.8469078878197</v>
+        <v>6660.78747651304</v>
       </c>
       <c r="K21" s="1">
-        <v>241.132958849684</v>
+        <v>241.13295483620399</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>6901.9837276719536</v>
+        <v>21165.735172391222</v>
       </c>
       <c r="M21" s="1">
-        <v>1408498.0613699199</v>
+        <v>1400000</v>
       </c>
       <c r="N21" s="1">
-        <v>1613474.3898062301</v>
+        <v>1594094.09447251</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>9.3732618366097551</v>
+        <v>8.7133670882282352</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ref="P21" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-99.999999012244302</v>
+        <v>-96.351150616697836</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" ref="Q21" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-98.398841993107268</v>
+        <v>-95.089862903157496</v>
       </c>
     </row>
   </sheetData>

--- a/NSAS/stf/NSAS_stf_2020_tab_CD_TAC_sq.xlsx
+++ b/NSAS/stf/NSAS_stf_2020_tab_CD_TAC_sq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wg_HAWG\NSAS\stf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ECEFBB6-C8DD-4A78-A1CD-06DFC81D230F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6F8B4C6-51D3-4126-B482-EFC356453F33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -646,6 +649,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1004,7 +1008,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,44 +1083,44 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.19685269506612699</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.7872262285893201E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.9676258521163399E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.6751678629677497E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.19820018076863499</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.13963503207827E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>391200.47811948002</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5614.9800126062901</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3330.39373536621</v>
-      </c>
-      <c r="K2" s="1">
-        <v>241.13295482451699</v>
+      <c r="B2" s="7">
+        <v>0.19685269506604999</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.78722622862964E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.9676258538572299E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>7.6751678634888996E-4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.19820018076965601</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.13963503229786E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>391200.47811927</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5614.9800127283097</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3330.39373830661</v>
+      </c>
+      <c r="K2" s="4">
+        <v>241.13295484068999</v>
       </c>
       <c r="L2" s="4">
         <f>SUM(H2:K2)</f>
-        <v>400386.9848222771</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1287790.1195570601</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>400386.98482514557</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1287790.11955638</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="1"/>
@@ -1133,562 +1137,562 @@
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.226613543085911</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.0574250599954699E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.9081771548694201E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.5104621068203497E-4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.22793940835590501</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.41416947624669E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>368118.66641693999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6605.6252933010901</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3330.39370528166</v>
-      </c>
-      <c r="K3" s="1">
-        <v>241.13295507978799</v>
+      <c r="B3" s="7">
+        <v>0.226613118579086</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.97581905599232E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.90805961478388E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7.5073117309246195E-4</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.227934112271029</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2.3325200443423601E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>368118.66927183798</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6346.2808562547598</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3330.39373833842</v>
+      </c>
+      <c r="K3" s="4">
+        <v>241.13295483920501</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L21" si="0">SUM(H3:K3)</f>
-        <v>378295.8183706025</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1179233.9400802699</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1166818.32216917</v>
+        <v>378036.47682127036</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1179238.31874751</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1166897.8712851901</v>
       </c>
       <c r="O3" s="3">
         <f>(M3-$M$2)*100/$M$2</f>
-        <v>-8.4296484208256235</v>
+        <v>-8.4293084067351067</v>
       </c>
       <c r="P3" s="3">
         <f>(H3-$S$2)*100/$S$2</f>
-        <v>-4.3867487384833597</v>
+        <v>-4.3867479969668217</v>
       </c>
       <c r="Q3" s="3">
         <f>(L3-$U$2)*100/$U$2</f>
-        <v>-12.24097267432469</v>
+        <v>-12.30113607293838</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.22646415664348399</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.63524058222732E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.9118703587767199E-3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.6101121644255802E-4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.22794389568503001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4.9932909484102797E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>367896.85005808302</v>
-      </c>
-      <c r="I4" s="1">
-        <v>14687.158715252899</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3330.3937049486999</v>
-      </c>
-      <c r="K4" s="1">
-        <v>241.13295354798501</v>
+      <c r="B4" s="7">
+        <v>0.22646415664337299</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4.6352405822402597E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.91187035873808E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7.6101121637766602E-4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.22794389568489501</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.99329094841282E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>367896.85005751299</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14687.158715289201</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3330.3937048733901</v>
+      </c>
+      <c r="K4" s="4">
+        <v>241.13295352734499</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>386155.5354318326</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1179239.09087641</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1164553.4070532999</v>
+        <v>386155.53543120291</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1179239.0908738601</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1164553.4070506201</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O21" si="1">(M4-$M$2)*100/$M$2</f>
-        <v>-8.4292484491173578</v>
+        <v>-8.429248449267007</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P20" si="2">(H4-$S$2)*100/$S$2</f>
-        <v>-4.4443621799850872</v>
+        <v>-4.444362180133143</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q20" si="3">(L4-$U$2)*100/$U$2</f>
-        <v>-10.41763471801444</v>
+        <v>-10.417634718160517</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.21774735814613499</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.97692893944925E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.8221723568364501E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7.5115288384911005E-4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.220272695924464</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.52153015737368E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>355854.66927286203</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6346.2808561250104</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6660.78747667675</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="B5" s="7">
+        <v>0.21774735814570201</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.9769289394906901E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.8221723568458801E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7.5115288384949798E-4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.220272695924039</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2.5215301574159299E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>355854.66927185899</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6346.2808562547598</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6660.78747667682</v>
+      </c>
+      <c r="K5" s="4">
         <v>241.13295484068999</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>369102.87056050444</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1186083.74728557</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1175798.9246698699</v>
+        <v>369102.87055963121</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1186083.7472832899</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1175798.92466753</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>-7.8977444171160691</v>
+        <v>-7.8977444172444846</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>-7.5721363522674787</v>
+        <v>-7.5721363525280019</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>-14.373600419312201</v>
+        <v>-14.373600419514778</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.21759893380537901</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.4537882885013702E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.82928949542862E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.6073553544236895E-4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.22027436436349701</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="1">
-        <v>355632.85292268102</v>
-      </c>
-      <c r="I6" s="1">
-        <v>14117.325652780901</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6660.7874766720297</v>
-      </c>
-      <c r="K6" s="1">
-        <v>241.13295455038801</v>
+      <c r="B6" s="7">
+        <v>0.21759893380494799</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4.4537882885071697E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3.82928949543789E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.6073553537703796E-4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.22027436436307099</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5.0000000000000197E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>355632.85292168101</v>
+      </c>
+      <c r="I6" s="4">
+        <v>14117.325652795</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6660.7874766719897</v>
+      </c>
+      <c r="K6" s="4">
+        <v>241.13295452960699</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>376652.09900668432</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1186092.73118803</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1173638.70143879</v>
+        <v>376652.09900567762</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1186092.7311857401</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1173638.7014364901</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-7.8970467954832007</v>
+        <v>-7.8970467956123747</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>-7.6297497915157555</v>
+        <v>-7.6297497917754926</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>-12.622291223377538</v>
+        <v>-12.622291223611075</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.19484015029850399</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.4770650473912199E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.9663345691334601E-3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.6165418954228796E-4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.196227329187106</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.8279518760679401E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>311558.88296860497</v>
-      </c>
-      <c r="I7" s="1">
-        <v>12655.729561869401</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3436.6269430078801</v>
-      </c>
-      <c r="K7" s="1">
-        <v>244.027479704271</v>
+      <c r="B7" s="7">
+        <v>0.19484015029814999</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.4770650473827399E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.9663345708120401E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>7.6165418959288898E-4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.196227329187808</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2.8279518762322299E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>311558.88296764798</v>
+      </c>
+      <c r="I7" s="4">
+        <v>12655.7295618345</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3436.6269460336998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>244.02747972064</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>327895.26695318654</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1207717.6944206499</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1214307.44814912</v>
+        <v>327895.26695523679</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1207717.6944174001</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1214307.44814302</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2178163910708806</v>
+        <v>-6.2178163912737112</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
-        <v>-19.077296324075089</v>
+        <v>-19.077296324323655</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>-23.933154174298235</v>
+        <v>-23.933154173822608</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.19484015029850399</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.4770650473912199E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.9663345691334601E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7.6165418954228796E-4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.196227329187106</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.8279518760679401E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>311558.88296860497</v>
-      </c>
-      <c r="I8" s="1">
-        <v>12655.729561869401</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3436.6269430078801</v>
-      </c>
-      <c r="K8" s="1">
-        <v>244.027479704271</v>
+      <c r="B8" s="7">
+        <v>0.19484015029814999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.4770650473827399E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.9663345708120401E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7.6165418959288898E-4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.196227329187808</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2.8279518762322299E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>311558.88296764798</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12655.7295618345</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3436.6269460336998</v>
+      </c>
+      <c r="K8" s="4">
+        <v>244.02747972064</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>327895.26695318654</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1207717.6944206499</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1214307.44814912</v>
+        <v>327895.26695523679</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1207717.6944174001</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1214307.44814302</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2178163910708806</v>
+        <v>-6.2178163912737112</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>-19.077296324075089</v>
+        <v>-19.077296324323655</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>-23.933154174298235</v>
+        <v>-23.933154173822608</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.19484015029850399</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.4770650473912199E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.9663345691334601E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.6165418954228796E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.196227329187106</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.8279518760679401E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>311558.88296860497</v>
-      </c>
-      <c r="I9" s="1">
-        <v>12655.729561869401</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3436.6269430078801</v>
-      </c>
-      <c r="K9" s="1">
-        <v>244.027479704271</v>
+      <c r="B9" s="7">
+        <v>0.19484015029814999</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.4770650473827399E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.9663345708120401E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7.6165418959288898E-4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.196227329187808</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2.8279518762322299E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>311558.88296764798</v>
+      </c>
+      <c r="I9" s="4">
+        <v>12655.7295618345</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3436.6269460336998</v>
+      </c>
+      <c r="K9" s="4">
+        <v>244.02747972064</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>327895.26695318654</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1207717.6944206499</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1214307.44814912</v>
+        <v>327895.26695523679</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1207717.6944174001</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1214307.44814302</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>-6.2178163910708806</v>
+        <v>-6.2178163912737112</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="2"/>
-        <v>-19.077296324075089</v>
+        <v>-19.077296324323655</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>-23.933154174298235</v>
+        <v>-23.933154173822608</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.198882044631807</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.0584730229976501E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.9658070317921002E-3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7.6026832035261404E-4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.200303051328028</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.4107884197180902E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>317304.12085120898</v>
-      </c>
-      <c r="I10" s="1">
-        <v>15579.6120610006</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3433.43815642145</v>
-      </c>
-      <c r="K10" s="1">
-        <v>242.85665225737699</v>
+      <c r="B10" s="7">
+        <v>0.19888204463144801</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.0584730230025899E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.9658070335956401E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>7.6026832040542401E-4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.20030305132880499</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3.4107884199085198E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>317304.12085023301</v>
+      </c>
+      <c r="I10" s="4">
+        <v>15579.6120609876</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3433.4381594444399</v>
+      </c>
+      <c r="K10" s="4">
+        <v>242.856652273658</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>336560.02772088844</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1203998.7570299101</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1207426.7329243501</v>
+        <v>336560.02772293874</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1203998.7570266</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1207426.7329179901</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-6.5066008237406185</v>
+        <v>-6.5066008239482844</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="2"/>
-        <v>-17.585057751732698</v>
+        <v>-17.585057751986191</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="3"/>
-        <v>-21.923058000731114</v>
+        <v>-21.923058000255473</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.257447533143012</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.3373669512843E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.8316110269889501E-3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.5262663954648397E-4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.25999999999996698</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2.8989704310929801E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>409067.17964044301</v>
-      </c>
-      <c r="I11" s="1">
-        <v>7488.6559934842999</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6660.7874766737596</v>
-      </c>
-      <c r="K11" s="1">
-        <v>241.132954840439</v>
+      <c r="B11" s="7">
+        <v>0.25744753314303198</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.3373669513381198E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.8316110270043601E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7.5262663954877998E-4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.8989704311485801E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>409067.17963999201</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7488.6559936523699</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6660.7874766839304</v>
+      </c>
+      <c r="K11" s="4">
+        <v>241.13295484103401</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
-        <v>423457.75606544153</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1151546.5370471</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1119295.51379002</v>
+        <v>423457.75606516929</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1151546.5370444399</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1119295.5137870801</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-10.579641856300428</v>
+        <v>-10.579641856459766</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="2"/>
-        <v>6.2490077194351832</v>
+        <v>6.249007719318044</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>-1.7640719744627158</v>
+        <v>-1.7640719745258708</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>1410557.79626078</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1622539.1676419999</v>
+      <c r="M12" s="4">
+        <v>1410557.7962579301</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1622539.1676384499</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>9.5332053600431621</v>
+        <v>9.5332053598797106</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="2"/>
@@ -1703,106 +1707,106 @@
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.23921735092548599</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.1718550704325702E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.82727948622116E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7.5194979449463698E-4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.24175736187923599</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2.72565142696117E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>385007.99999860598</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6964.6382571472504</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6660.7874766722198</v>
-      </c>
-      <c r="K13" s="1">
-        <v>241.132954840688</v>
+      <c r="B13" s="7">
+        <v>0.23921735092580201</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.1718550704852901E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.8272794862307699E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7.5194979449506904E-4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.24175736187956201</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2.72565142701502E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>385007.99999858497</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6964.6382573123001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6660.7874766722298</v>
+      </c>
+      <c r="K13" s="4">
+        <v>241.13295484068701</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>398874.55868726614</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1167202.09328202</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1144575.0276416701</v>
+        <v>398874.55868741014</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1167202.09327909</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1144575.0276382701</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="1"/>
-        <v>-9.3639502620595341</v>
+        <v>-9.3639502622391841</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="2"/>
-        <v>-3.6207436500452745E-10</v>
+        <v>-3.6753216473589969E-10</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>-7.4670096906556038</v>
+        <v>-7.4670096906221985</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>-0.15</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.19731720586653401</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.7914435235858301E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.8173066401368302E-3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>7.5039479191127097E-4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.199828577390531</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2.3272943728798699E-2</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="B14" s="7">
+        <v>0.19731720586679</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.79144352362927E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3.8173066400575E-3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7.5039479190604002E-4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.19982857739074</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2.3272943729149599E-2</v>
+      </c>
+      <c r="H14" s="4">
         <v>327256.80000110698</v>
       </c>
-      <c r="I14" s="1">
-        <v>5756.6506982492401</v>
-      </c>
-      <c r="J14" s="1">
-        <v>6660.7874500080097</v>
-      </c>
-      <c r="K14" s="1">
-        <v>241.13295484593399</v>
+      <c r="I14" s="4">
+        <v>5756.6506983859699</v>
+      </c>
+      <c r="J14" s="4">
+        <v>6660.7874498535803</v>
+      </c>
+      <c r="K14" s="4">
+        <v>241.132954844133</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>339915.37110421021</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1204510.07396479</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1207069.31320323</v>
+        <v>339915.37110419065</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1204510.0739619101</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1207069.31319998</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="1"/>
-        <v>-6.4668958339977447</v>
+        <v>-6.4668958341719787</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="2"/>
@@ -1810,406 +1814,406 @@
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>-21.144668028216312</v>
+        <v>-21.144668028220849</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.15</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.28379367330676902</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.5765636394827499E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.8378630904452901E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.5360511577371404E-4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.28636413641592301</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3.1494491681417901E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>442759.19967267202</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8244.2965250500802</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6660.7874766692603</v>
-      </c>
-      <c r="K15" s="1">
-        <v>241.13295484059699</v>
+      <c r="B15" s="7">
+        <v>0.28379367330694899</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.57656363954352E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.8378630904550601E-3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.5360511577458303E-4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.28636413641611203</v>
+      </c>
+      <c r="G15" s="7">
+        <v>3.1494491682036899E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>442759.19967237499</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8244.2965252394206</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6660.7874766695504</v>
+      </c>
+      <c r="K15" s="4">
+        <v>241.132954840726</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>457905.41662923194</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1129513.26372661</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1084622.2996143</v>
+        <v>457905.41662912467</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1129513.26372384</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1084622.2996112199</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="1"/>
-        <v>-12.290578521047355</v>
+        <v>-12.29057852121613</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="2"/>
-        <v>14.999999914981512</v>
+        <v>14.999999914904363</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>6.2272751087388691</v>
+        <v>6.2272751087139824</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.195689921819726</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.7766694066816E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.8169188457618602E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7.5033441838373799E-4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.19820018076863299</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2.3118232569752099E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>324941.94752437703</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5709.63470836134</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6660.7874766717996</v>
-      </c>
-      <c r="K16" s="1">
-        <v>241.13295484069101</v>
+      <c r="B16" s="7">
+        <v>0.19568992182838699</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.776669406801E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3.81691883250796E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>7.5033441839393003E-4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.19820018076896201</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2.3118232557737199E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>324941.94753703801</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5709.63470876255</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6660.7874536183999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>241.13295484470501</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>337553.50266425085</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1205997.4208547501</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1209628.6349899501</v>
+        <v>337553.50265426369</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1205997.42085113</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1209628.63500201</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="1"/>
-        <v>-6.3513997708293388</v>
+        <v>-6.3513997710609873</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="2"/>
-        <v>-15.601247889816047</v>
+        <v>-15.601247886527551</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>-21.692586527169908</v>
+        <v>-21.692586529486782</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.29742023125516698</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.70027920132755E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.8410931524946799E-3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7.5411133693985895E-4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.29999999999989901</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3.2789996044239697E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>459704.41636904702</v>
-      </c>
-      <c r="I17" s="1">
-        <v>8634.3523935508092</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6660.7874766735704</v>
-      </c>
-      <c r="K17" s="1">
-        <v>241.13295484071801</v>
+      <c r="B17" s="7">
+        <v>0.29742023125524603</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.7002792013902401E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.84109315252288E-3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7.5411133694329902E-4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.2789996044898601E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>459704.41636859602</v>
+      </c>
+      <c r="I17" s="4">
+        <v>8634.3523937457994</v>
+      </c>
+      <c r="J17" s="4">
+        <v>6660.7874767057101</v>
+      </c>
+      <c r="K17" s="4">
+        <v>241.13295484166599</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>475240.68919411208</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1118384.2393081801</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1067498.8532798099</v>
+        <v>475240.68919388921</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1118384.2393054899</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1067498.85327686</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="1"/>
-        <v>-13.15477403314352</v>
+        <v>-13.154774033306548</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>19.401263446226316</v>
+        <v>19.401263446109176</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>10.248801609539251</v>
+        <v>10.248801609487547</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.33739294239607798</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.0631915696589199E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.8505545504893199E-3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7.5559685989787099E-4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.339999999999544</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3.6590269110701103E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>507619.94534770702</v>
-      </c>
-      <c r="I18" s="1">
-        <v>9775.5360515143802</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6660.7874766851801</v>
-      </c>
-      <c r="K18" s="1">
-        <v>241.13295484046901</v>
+      <c r="B18" s="7">
+        <v>0.33739294239651202</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3.0631915697331601E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3.85055455051804E-3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7.5559685990326804E-4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="G18" s="7">
+        <v>3.65902691114793E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>507619.94534759503</v>
+      </c>
+      <c r="I18" s="4">
+        <v>9775.5360517445097</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6660.7874767179201</v>
+      </c>
+      <c r="K18" s="4">
+        <v>241.13295484202399</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>524297.40183074703</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1086747.4968522801</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1020193.34973032</v>
+        <v>524297.40183089953</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1086747.4968493499</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1020193.3497270599</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="1"/>
-        <v>-15.611443173203508</v>
+        <v>-15.611443173386476</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>31.846596784406302</v>
+        <v>31.846596784377216</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>21.629232414535963</v>
+        <v>21.629232414571344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.61964865905605504</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.6257920959790299E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.9168265097363503E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7.6610969001610204E-4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.62244807133194102</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6.3424282427511899E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>784300.26353783195</v>
-      </c>
-      <c r="I19" s="1">
-        <v>17707.1754750199</v>
-      </c>
-      <c r="J19" s="1">
-        <v>6660.7874753165197</v>
-      </c>
-      <c r="K19" s="1">
-        <v>241.13295484068999</v>
+      <c r="B19" s="7">
+        <v>0.61964865905243705</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.6257920960752897E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3.9168265095288202E-3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.66109690016623E-4</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.62244807132819802</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6.3424282428253001E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>784300.26353380503</v>
+      </c>
+      <c r="I19" s="4">
+        <v>17707.1754753102</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6660.7874749497396</v>
+      </c>
+      <c r="K19" s="4">
+        <v>241.13295484068101</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>808909.35944300902</v>
-      </c>
-      <c r="M19" s="1">
-        <v>900000.00003345497</v>
-      </c>
-      <c r="N19" s="1">
-        <v>776270.55235400598</v>
+        <v>808909.35943890561</v>
+      </c>
+      <c r="M19" s="4">
+        <v>900000.00003322598</v>
+      </c>
+      <c r="N19" s="4">
+        <v>776270.55235454603</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>-30.112835440683991</v>
+        <v>-30.11283544066486</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="2"/>
-        <v>103.71012122808668</v>
+        <v>103.71012122704074</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="3"/>
-        <v>87.654991496120985</v>
+        <v>87.654991495169057</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.81573703334955805</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7.4060790539049307E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.9623815890504196E-3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7.7343675801458498E-4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.81866977285531695</v>
-      </c>
-      <c r="G20" s="1">
-        <v>8.2065916309008599E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>930162.35334901302</v>
-      </c>
-      <c r="I20" s="1">
-        <v>23089.7963865737</v>
-      </c>
-      <c r="J20" s="1">
-        <v>6660.78747678319</v>
-      </c>
-      <c r="K20" s="1">
-        <v>241.13295483974599</v>
+      <c r="B20" s="7">
+        <v>0.81573703334499204</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7.4060790540334404E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3.9623815890601497E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>7.7343675801527995E-4</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.81866977285076403</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8.2065916310285897E-2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>930162.35334457504</v>
+      </c>
+      <c r="I20" s="4">
+        <v>23089.796386952599</v>
+      </c>
+      <c r="J20" s="4">
+        <v>6660.7874767843196</v>
+      </c>
+      <c r="K20" s="4">
+        <v>241.13295483973499</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>960154.0701672096</v>
-      </c>
-      <c r="M20" s="1">
-        <v>800000.00303885795</v>
-      </c>
-      <c r="N20" s="1">
-        <v>664899.44154426304</v>
+        <v>960154.07016315171</v>
+      </c>
+      <c r="M20" s="4">
+        <v>800000.00303871499</v>
+      </c>
+      <c r="N20" s="4">
+        <v>664899.44154452696</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="1"/>
-        <v>-37.878075713609235</v>
+        <v>-37.878075713587535</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="2"/>
-        <v>141.59559109135733</v>
+        <v>141.59559109020464</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>122.7415244598711</v>
+        <v>122.74152445892973</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
-        <v>7.3156591660757204E-3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6.6418892241421295E-4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.7717603250491498E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>7.4335495422781102E-4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>9.6969582874465807E-3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5.2086238694728504E-3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>14048.362033664</v>
-      </c>
-      <c r="I21" s="1">
-        <v>215.452707377976</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6660.78747651304</v>
-      </c>
-      <c r="K21" s="1">
-        <v>241.13295483620399</v>
+      <c r="B21" s="7">
+        <v>7.31565917449089E-3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.6418892319346895E-4</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3.7717603018451E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7.43354954237012E-4</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9.6969582812674003E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>5.2086238470909797E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>14048.3620497596</v>
+      </c>
+      <c r="I21" s="4">
+        <v>215.452707632103</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6660.7874356836501</v>
+      </c>
+      <c r="K21" s="4">
+        <v>241.13295484069801</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>21165.735172391222</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1400000</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1594094.09447251</v>
+        <v>21165.73514791605</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1400000.00000003</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1594094.0945017501</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="1"/>
-        <v>8.7133670882282352</v>
+        <v>8.713367088287983</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" ref="P21" si="4">(H21-$S$2)*100/$S$2</f>
-        <v>-96.351150616697836</v>
+        <v>-96.351150612517245</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" ref="Q21" si="5">(L21-$U$2)*100/$U$2</f>
-        <v>-95.089862903157496</v>
+        <v>-95.089862908835372</v>
       </c>
     </row>
   </sheetData>
